--- a/data/case1/9/V1_6.xlsx
+++ b/data/case1/9/V1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999856661215</v>
+        <v>0.99999999763610758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99657889474986683</v>
+        <v>0.99575685656836277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98189236354504328</v>
+        <v>0.97672362778338484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97842311208590083</v>
+        <v>0.97103346912052635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97207070957048014</v>
+        <v>0.96238388142585685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95725791843198738</v>
+        <v>0.94164558718088509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95417867379150634</v>
+        <v>0.93757814876979007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95015822436176167</v>
+        <v>0.9320863774841297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9472867918864718</v>
+        <v>0.92666983781530798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94534875686548037</v>
+        <v>0.92217338437336427</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94513887540755781</v>
+        <v>0.92156126326688681</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94499580231919567</v>
+        <v>0.92065248686288892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94653546058289872</v>
+        <v>0.91848416160417035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.94815932944146564</v>
+        <v>0.91843710915600973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94556809453420976</v>
+        <v>0.91584559375165275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.94306179096104592</v>
+        <v>0.91333908926437901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93935401102815819</v>
+        <v>0.90963111705035127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9382450807499797</v>
+        <v>0.90852218140756125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99552561270920814</v>
+        <v>0.99470358670451309</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98840835078717582</v>
+        <v>0.98758635062920219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98700982146377259</v>
+        <v>0.98618782771699065</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98574530913003278</v>
+        <v>0.98492331551002876</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97280443552847795</v>
+        <v>0.96633399001722553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9597831410317893</v>
+        <v>0.95331223761520445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9533260632105689</v>
+        <v>0.94685508613579161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95611074944194607</v>
+        <v>0.93976500141515618</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95476396455287982</v>
+        <v>0.93739369210294221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9494014167413497</v>
+        <v>0.92724574574760832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94614378532839483</v>
+        <v>0.92040106359763918</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93957483075178327</v>
+        <v>0.91383130333769569</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93192189631023603</v>
+        <v>0.90617780373158796</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93024254063425127</v>
+        <v>0.90449843795151263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92972250852605653</v>
+        <v>0.90397841004105328</v>
       </c>
     </row>
   </sheetData>
